--- a/casefile/testdata.xlsx
+++ b/casefile/testdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26820" windowHeight="12560"/>
+    <workbookView windowWidth="26680" windowHeight="13200"/>
   </bookViews>
   <sheets>
     <sheet name="user" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17">
   <si>
     <t>casename</t>
   </si>
@@ -73,7 +73,10 @@
     <t>/user/delete</t>
   </si>
   <si>
-    <t>{}</t>
+    <t>AUTOTEST1</t>
+  </si>
+  <si>
+    <t>AUTOTEST2</t>
   </si>
 </sst>
 </file>
@@ -81,10 +84,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -109,16 +112,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -133,8 +142,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -145,6 +162,14 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -164,17 +189,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -188,20 +227,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -212,28 +237,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -254,31 +257,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -290,7 +413,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -302,133 +431,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -447,6 +450,45 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -477,24 +519,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -513,176 +542,150 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -697,6 +700,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" quotePrefix="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1018,13 +1024,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="$A4:$XFD4"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="3" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="4" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="9.96428571428571" style="1" customWidth="1"/>
     <col min="2" max="3" width="9.14285714285714" style="1"/>
@@ -1093,10 +1099,27 @@
       <c r="C4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="36" spans="1:5">
+      <c r="A5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>9</v>
       </c>
     </row>

--- a/casefile/testdata.xlsx
+++ b/casefile/testdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26680" windowHeight="13200"/>
+    <workbookView windowWidth="26980" windowHeight="13200"/>
   </bookViews>
   <sheets>
     <sheet name="user" sheetId="1" r:id="rId1"/>
@@ -84,9 +84,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -106,21 +106,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -134,48 +143,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -189,6 +166,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -199,21 +184,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -227,6 +197,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -237,6 +222,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -251,19 +251,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -275,163 +419,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -454,25 +454,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -497,21 +488,30 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -547,145 +547,145 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1026,8 +1026,8 @@
   <sheetPr/>
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="4" outlineLevelCol="4"/>

--- a/casefile/testdata.xlsx
+++ b/casefile/testdata.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26980" windowHeight="13200"/>
+    <workbookView windowWidth="26820" windowHeight="13200" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="user" sheetId="1" r:id="rId1"/>
+    <sheet name="businessApi" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53">
   <si>
     <t>casename</t>
   </si>
@@ -78,18 +79,182 @@
   <si>
     <t>AUTOTEST2</t>
   </si>
+  <si>
+    <t>用户别名唯一性检查-存在</t>
+  </si>
+  <si>
+    <t>/user/checkUnique/alias</t>
+  </si>
+  <si>
+    <t>{
+ "alias": "chenby22",
+ "tenantCode": "admin"
+}</t>
+  </si>
+  <si>
+    <t>用户别名已经存在</t>
+  </si>
+  <si>
+    <t>用户别名唯一性检查-不存在</t>
+  </si>
+  <si>
+    <t>{
+ "alias": "plkm",
+ "tenantCode": "admin"
+}</t>
+  </si>
+  <si>
+    <t>成功完成操作</t>
+  </si>
+  <si>
+    <t>用户增量-存在</t>
+  </si>
+  <si>
+    <t>/user/authorized/incrementalUsers</t>
+  </si>
+  <si>
+    <t>{
+  "tenantId":"admin",
+  "startTime":"2020-04-08 15:48:16",
+  "index":"1",
+  "size":"10"
+}</t>
+  </si>
+  <si>
+    <t>用户增量-不存在</t>
+  </si>
+  <si>
+    <t>获取用户信息-存在</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>/user/get</t>
+  </si>
+  <si>
+    <t>uid=MC791485618</t>
+  </si>
+  <si>
+    <t>MC791485618</t>
+  </si>
+  <si>
+    <t>获取用户信息-不存在</t>
+  </si>
+  <si>
+    <t>uid=MC4565214091</t>
+  </si>
+  <si>
+    <t>账号不存在</t>
+  </si>
+  <si>
+    <t>获取租户登录配置-存在</t>
+  </si>
+  <si>
+    <t>/tenant/setting/get</t>
+  </si>
+  <si>
+    <t>tenantCode=admin</t>
+  </si>
+  <si>
+    <t>获取租户登录配置-不存在</t>
+  </si>
+  <si>
+    <t>tenantCode=admin1</t>
+  </si>
+  <si>
+    <t>租户不存在</t>
+  </si>
+  <si>
+    <t>更新租户-成功</t>
+  </si>
+  <si>
+    <t>/tenant/update</t>
+  </si>
+  <si>
+    <t>{
+  "name": "wangwuliu",
+  "tenantId": "T490293715",
+  "tenantName":"山东天汇研磨附拉术开发有限公司",
+  "email":"5155@qq.com",
+  "companyCode":"C2354",  "creditCode":"91532323sfdfsfMA6NN2NT3Y",
+  "legalPerson":"张凯",
+  "businessDate":"2019-03-14",
+  "registeredCapital":"壹佰万元整",
+  "registeredDate":"",
+  "companyNature":"有限责任公司(自然人投资或控股)",
+  "officeAddress":"云南省楚雄彝族自治州牟定县共和镇彝和园二期B区26幢1号商铺",
+  "type":"1"
+}</t>
+  </si>
+  <si>
+    <t>更新租户-失败</t>
+  </si>
+  <si>
+    <t>{
+  "name": "wangwuliu",
+  "tenantId": "T4902937151",
+  "tenantName":"山东天汇研磨附拉术开发有限公司",
+  "email":"5155@qq.com",
+  "companyCode":"C2354",
+"creditCode":"91532323sfdfsfMA6NN2NT3Y",
+  "legalPerson":"张凯",
+  "businessDate":"2019-03-14",
+  "registeredCapital":"壹佰万元整",
+  "registeredDate":"",
+  "companyNature":"有限责任公司(自然人投资或控股)",
+  "officeAddress":"云南省楚雄彝族自治州牟定县共和镇彝和园二期B区26幢1号商铺",
+  "type":"1"
+}</t>
+  </si>
+  <si>
+    <t>4010</t>
+  </si>
+  <si>
+    <t>更新用户信息-成功</t>
+  </si>
+  <si>
+    <t>/user/update</t>
+  </si>
+  <si>
+    <t>{
+  "uid":"MC575826750",
+  "name":"斗鱼直播",
+  "mobile":"17212345678",
+  "locale":"z12222",
+  "secureMobile":"1700000001",
+  "timeZone":"gmt+812121",
+  "tenantId":"T498154929",
+  "email":"ijnf@bnr.com"
+}</t>
+  </si>
+  <si>
+    <t>更新用户信息-失败</t>
+  </si>
+  <si>
+    <t>{
+  "uid":"MC575826750",
+  "name":"斗鱼直播",
+  "mobile":"17212345678",
+  "locale":"z12222",
+  "secureMobile":"1700000001",
+  "timeZone":"gmt+812121",
+  "tenantId":"Tdjnjnjnn",
+  "email":"ijnf@bnr.com"
+}</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -98,6 +263,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color rgb="FF505050"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -107,6 +279,128 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -119,128 +413,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -257,31 +429,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -293,145 +585,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -455,16 +627,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -488,16 +669,18 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -517,28 +700,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -547,163 +719,172 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" quotePrefix="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1026,7 +1207,7 @@
   <sheetPr/>
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
@@ -1039,88 +1220,326 @@
   </cols>
   <sheetData>
     <row r="1" ht="18" spans="1:5">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" ht="159" spans="1:5">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" ht="194" spans="1:5">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" ht="36" spans="1:5">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="36" spans="1:5">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="4" t="s">
         <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="22.1696428571429" customWidth="1"/>
+    <col min="3" max="3" width="19.9285714285714" customWidth="1"/>
+    <col min="4" max="4" width="29.3125" customWidth="1"/>
+    <col min="5" max="5" width="17.5535714285714" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" ht="71" spans="1:5">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" ht="71" spans="1:5">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" ht="124" spans="1:4">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" ht="124" spans="1:4">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" ht="370" spans="1:5">
+      <c r="A10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" ht="370" spans="1:5">
+      <c r="A11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" ht="176" spans="1:5">
+      <c r="A12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" ht="176" spans="1:5">
+      <c r="A13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/casefile/testdata.xlsx
+++ b/casefile/testdata.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26820" windowHeight="13200" activeTab="1"/>
+    <workbookView windowWidth="26760" windowHeight="13200" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="user" sheetId="1" r:id="rId1"/>
     <sheet name="businessApi" sheetId="2" r:id="rId2"/>
+    <sheet name="opertionAdmin" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63">
   <si>
     <t>casename</t>
   </si>
@@ -87,7 +88,7 @@
   </si>
   <si>
     <t>{
- "alias": "chenby22",
+ "alias": "luoxk10",
  "tenantCode": "admin"
 }</t>
   </si>
@@ -124,6 +125,17 @@
     <t>用户增量-不存在</t>
   </si>
   <si>
+    <t>{
+  "tenantId":"admin1",
+  "startTime":"2020-04-08 15:48:16",
+  "index":"1",
+  "size":"10"
+}</t>
+  </si>
+  <si>
+    <t>指定租户ID不存在</t>
+  </si>
+  <si>
     <t>获取用户信息-存在</t>
   </si>
   <si>
@@ -133,16 +145,16 @@
     <t>/user/get</t>
   </si>
   <si>
-    <t>uid=MC791485618</t>
-  </si>
-  <si>
-    <t>MC791485618</t>
+    <t>uid=MC703991472</t>
+  </si>
+  <si>
+    <t>MC703991472</t>
   </si>
   <si>
     <t>获取用户信息-不存在</t>
   </si>
   <si>
-    <t>uid=MC4565214091</t>
+    <t>uid=MC00019622512</t>
   </si>
   <si>
     <t>账号不存在</t>
@@ -174,10 +186,10 @@
   <si>
     <t>{
   "name": "wangwuliu",
-  "tenantId": "T490293715",
+  "tenantId": "T965270924",
   "tenantName":"山东天汇研磨附拉术开发有限公司",
   "email":"5155@qq.com",
-  "companyCode":"C2354",  "creditCode":"91532323sfdfsfMA6NN2NT3Y",
+  "companyCode":"C2354",  "creditCode":"34gdjkvnewuvhiwjfdwe",
   "legalPerson":"张凯",
   "businessDate":"2019-03-14",
   "registeredCapital":"壹佰万元整",
@@ -193,11 +205,11 @@
   <si>
     <t>{
   "name": "wangwuliu",
-  "tenantId": "T4902937151",
+  "tenantId": "T9652709241",
   "tenantName":"山东天汇研磨附拉术开发有限公司",
   "email":"5155@qq.com",
   "companyCode":"C2354",
-"creditCode":"91532323sfdfsfMA6NN2NT3Y",
+"creditCode":"34gdjkvnewuvhiwjfdwe",
   "legalPerson":"张凯",
   "businessDate":"2019-03-14",
   "registeredCapital":"壹佰万元整",
@@ -218,13 +230,13 @@
   </si>
   <si>
     <t>{
-  "uid":"MC575826750",
+  "uid":"MC397846849",
   "name":"斗鱼直播",
   "mobile":"17212345678",
   "locale":"z12222",
   "secureMobile":"1700000001",
   "timeZone":"gmt+812121",
-  "tenantId":"T498154929",
+  "tenantId":"T6662402",
   "email":"ijnf@bnr.com"
 }</t>
   </si>
@@ -233,15 +245,45 @@
   </si>
   <si>
     <t>{
-  "uid":"MC575826750",
+  "uid":"MC3978468491",
   "name":"斗鱼直播",
   "mobile":"17212345678",
   "locale":"z12222",
   "secureMobile":"1700000001",
   "timeZone":"gmt+812121",
-  "tenantId":"Tdjnjnjnn",
+  "tenantId":"T666240212",
   "email":"ijnf@bnr.com"
 }</t>
+  </si>
+  <si>
+    <t>禁用用户-成功</t>
+  </si>
+  <si>
+    <t>/user/disable</t>
+  </si>
+  <si>
+    <t>{
+ "tenantCode": "admin",
+ "uid": "MC735403442"
+}</t>
+  </si>
+  <si>
+    <t>禁用用户-失败</t>
+  </si>
+  <si>
+    <t>{
+ "tenantCode": "admin",
+ "uid": "MC7354034421"
+}</t>
+  </si>
+  <si>
+    <t>启用用户-成功</t>
+  </si>
+  <si>
+    <t>/user/enable</t>
+  </si>
+  <si>
+    <t>启用用户-失败</t>
   </si>
 </sst>
 </file>
@@ -1213,10 +1255,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="9.96428571428571" style="1" customWidth="1"/>
-    <col min="2" max="3" width="9.14285714285714" style="1"/>
-    <col min="4" max="4" width="36.9017857142857" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.14285714285714" style="1"/>
+    <col min="1" max="1" width="9.96428571428571" style="2" customWidth="1"/>
+    <col min="2" max="3" width="9.14285714285714" style="2"/>
+    <col min="4" max="4" width="36.9017857142857" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="9.14285714285714" style="2"/>
   </cols>
   <sheetData>
     <row r="1" ht="18" spans="1:5">
@@ -1287,7 +1329,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="36" spans="1:5">
+    <row r="5" s="2" customFormat="1" ht="36" spans="1:5">
       <c r="A5" s="4" t="s">
         <v>12</v>
       </c>
@@ -1315,8 +1357,8 @@
   <sheetPr/>
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="4"/>
@@ -1354,7 +1396,7 @@
       <c r="C2" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E2" t="s">
@@ -1371,14 +1413,14 @@
       <c r="C3" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" ht="124" spans="1:4">
+    <row r="4" ht="124" spans="1:5">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -1388,11 +1430,14 @@
       <c r="C4" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="5" ht="124" spans="1:4">
+      <c r="E4" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" ht="124" spans="1:5">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -1402,56 +1447,59 @@
       <c r="C5" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>26</v>
+      <c r="D5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E8">
         <v>8</v>
@@ -1459,33 +1507,33 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" t="s">
         <v>39</v>
       </c>
-      <c r="B9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" t="s">
-        <v>37</v>
-      </c>
       <c r="D9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" ht="370" spans="1:5">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="E10" t="s">
         <v>23</v>
@@ -1493,33 +1541,33 @@
     </row>
     <row r="11" ht="370" spans="1:5">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" ht="176" spans="1:5">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>49</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="E12" t="s">
         <v>23</v>
@@ -1527,19 +1575,128 @@
     </row>
     <row r="13" ht="176" spans="1:5">
       <c r="A13" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>47</v>
+        <v>51</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="4" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="13.6785714285714" customWidth="1"/>
+    <col min="2" max="2" width="11.75" customWidth="1"/>
+    <col min="3" max="3" width="15.1696428571429" customWidth="1"/>
+    <col min="4" max="4" width="16.5089285714286" customWidth="1"/>
+    <col min="5" max="5" width="25.4375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" ht="106" spans="1:5">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" ht="106" spans="1:5">
+      <c r="A3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" ht="106" spans="1:5">
+      <c r="A4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" ht="106" spans="1:5">
+      <c r="A5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/casefile/testdata.xlsx
+++ b/casefile/testdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26760" windowHeight="13200" activeTab="1"/>
+    <workbookView windowWidth="26760" windowHeight="13200" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="user" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84">
   <si>
     <t>casename</t>
   </si>
@@ -284,6 +284,82 @@
   </si>
   <si>
     <t>启用用户-失败</t>
+  </si>
+  <si>
+    <t>检查手机是否存在-存在</t>
+  </si>
+  <si>
+    <t>/admin/user/checkMobileExists</t>
+  </si>
+  <si>
+    <t>mobile=17392723822</t>
+  </si>
+  <si>
+    <t>MC905651805</t>
+  </si>
+  <si>
+    <t>检查手机是否存在-不存在</t>
+  </si>
+  <si>
+    <t>mobile=17392723800</t>
+  </si>
+  <si>
+    <t>用户手机不存在</t>
+  </si>
+  <si>
+    <t>检查第三方账号是否已经存在-存在</t>
+  </si>
+  <si>
+    <t>/admin/user/checkAccountExists</t>
+  </si>
+  <si>
+    <t>account=luoxk09&amp;type=2</t>
+  </si>
+  <si>
+    <t>第三方账号不存在</t>
+  </si>
+  <si>
+    <t>创建运营中心用户数据-成功</t>
+  </si>
+  <si>
+    <t>/admin/user/create</t>
+  </si>
+  <si>
+    <t>{
+ "alias": "autotestluoxk",
+ "email": "autotest@autotest.com",
+ "mobile": "1387878787",
+ "name": "autotestluoxk",
+ "password": "zyYL9E3t/otlmy+hGhzo7g==",
+ "tenantCode": ""
+}</t>
+  </si>
+  <si>
+    <t>创建运营中心用户数据-失败</t>
+  </si>
+  <si>
+    <t>删除运营中心用户数据-成功</t>
+  </si>
+  <si>
+    <t>/admin/user/delete</t>
+  </si>
+  <si>
+    <t>{
+ "tenantCode": "admin",
+ "uid": ""
+}</t>
+  </si>
+  <si>
+    <t>删除运营中心用户数据-失败</t>
+  </si>
+  <si>
+    <t>{
+ "tenantCode": "admin",
+ "uid": "MC09090909"
+}</t>
+  </si>
+  <si>
+    <t>用户ID不存在</t>
   </si>
 </sst>
 </file>
@@ -1357,7 +1433,7 @@
   <sheetPr/>
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -1599,17 +1675,17 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="13.6785714285714" customWidth="1"/>
+    <col min="1" max="1" width="33.1785714285714" customWidth="1"/>
     <col min="2" max="2" width="11.75" customWidth="1"/>
-    <col min="3" max="3" width="15.1696428571429" customWidth="1"/>
+    <col min="3" max="3" width="32.4464285714286" customWidth="1"/>
     <col min="4" max="4" width="16.5089285714286" customWidth="1"/>
     <col min="5" max="5" width="25.4375" customWidth="1"/>
   </cols>
@@ -1699,6 +1775,125 @@
         <v>37</v>
       </c>
     </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" ht="264" spans="1:5">
+      <c r="A9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" ht="264" spans="1:5">
+      <c r="A10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" ht="88" spans="1:5">
+      <c r="A11" t="s">
+        <v>78</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" ht="106" spans="1:5">
+      <c r="A12" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E12" t="s">
+        <v>83</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/casefile/testdata.xlsx
+++ b/casefile/testdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26760" windowHeight="13200" activeTab="2"/>
+    <workbookView windowWidth="26820" windowHeight="13200" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="user" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96">
   <si>
     <t>casename</t>
   </si>
@@ -361,16 +361,78 @@
   <si>
     <t>用户ID不存在</t>
   </si>
+  <si>
+    <t>重置运营中心账号密码-成功</t>
+  </si>
+  <si>
+    <t>/admin/user/resetPassword</t>
+  </si>
+  <si>
+    <t>{
+ "password": "zyYL9E3t/otlmy+hGhzo7g==",
+ "tenantCode": "admin",
+ "uid": "MC527496532"
+}</t>
+  </si>
+  <si>
+    <t>重置运营中心账号密码-失败</t>
+  </si>
+  <si>
+    <t>{
+ "password": "zyYL9E3t/otlmy+hGhzo7g==",
+ "tenantCode": "admin",
+ "uid": "MC527496531"
+}</t>
+  </si>
+  <si>
+    <t>更新运营中心用户数据（attr为空）-成功</t>
+  </si>
+  <si>
+    <t>/admin/user/update</t>
+  </si>
+  <si>
+    <t>{
+ "email": "",
+ "mobile": "",
+ "name": "",
+ "tenantCode": "admin",
+ "uid": "MC527496532"
+}</t>
+  </si>
+  <si>
+    <t>更新运营中心用户数据（attr不为空）-成功</t>
+  </si>
+  <si>
+    <t>{
+ "email": "luoxk@midea.com",
+ "mobile": "17313144672",
+ "name": "罗小凯",
+ "tenantCode": "admin",
+ "uid": "MC527496532"
+}</t>
+  </si>
+  <si>
+    <t>更新运营中心用户数据-失败</t>
+  </si>
+  <si>
+    <t>{
+ "email": "luoxk@midea.com",
+ "mobile": "17313144672",
+ "name": "罗小凯",
+ "tenantCode": "admin",
+ "uid": "MC527496531"
+}</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -389,29 +451,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -425,13 +465,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -441,17 +474,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -460,6 +492,14 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -473,30 +513,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -517,8 +541,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -526,11 +566,33 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -547,13 +609,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -565,163 +663,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -738,8 +800,73 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -762,73 +889,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -837,148 +899,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1331,10 +1393,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="9.96428571428571" style="2" customWidth="1"/>
-    <col min="2" max="3" width="9.14285714285714" style="2"/>
-    <col min="4" max="4" width="36.9017857142857" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="9.14285714285714" style="2"/>
+    <col min="1" max="1" width="9.96428571428571" style="1" customWidth="1"/>
+    <col min="2" max="3" width="9.14285714285714" style="1"/>
+    <col min="4" max="4" width="36.9017857142857" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18" spans="1:5">
@@ -1405,7 +1467,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" ht="36" spans="1:5">
+    <row r="5" s="1" customFormat="1" ht="36" spans="1:5">
       <c r="A5" s="4" t="s">
         <v>12</v>
       </c>
@@ -1472,7 +1534,7 @@
       <c r="C2" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E2" t="s">
@@ -1489,7 +1551,7 @@
       <c r="C3" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E3" t="s">
@@ -1675,10 +1737,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="4"/>
@@ -1894,6 +1956,91 @@
         <v>83</v>
       </c>
     </row>
+    <row r="13" ht="159" spans="1:5">
+      <c r="A13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" ht="159" spans="1:5">
+      <c r="A14" t="s">
+        <v>87</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" ht="159" spans="1:5">
+      <c r="A15" t="s">
+        <v>89</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>90</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" ht="229" spans="1:5">
+      <c r="A16" t="s">
+        <v>92</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>90</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" ht="229" spans="1:5">
+      <c r="A17" t="s">
+        <v>94</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>90</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E17" t="s">
+        <v>83</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/casefile/testdata.xlsx
+++ b/casefile/testdata.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26820" windowHeight="13200" activeTab="2"/>
+    <workbookView windowWidth="26760" windowHeight="13200" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="user" sheetId="1" r:id="rId1"/>
     <sheet name="businessApi" sheetId="2" r:id="rId2"/>
     <sheet name="opertionAdmin" sheetId="3" r:id="rId3"/>
+    <sheet name="syncApis" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117">
   <si>
     <t>casename</t>
   </si>
@@ -423,6 +424,97 @@
  "uid": "MC527496531"
 }</t>
   </si>
+  <si>
+    <t>用户AK信息同步-成功</t>
+  </si>
+  <si>
+    <t>/data/accessKeySync</t>
+  </si>
+  <si>
+    <t>{
+  "index": 1,
+  "productId": "S0383091",
+  "size": 10,
+  "tenantId": "T022895382"
+}</t>
+  </si>
+  <si>
+    <t>用户AK信息同步-失败</t>
+  </si>
+  <si>
+    <t>{
+  "index": 2,
+  "productId": "S0383091",
+  "size": 10,
+  "tenantId": "T022895382"
+}</t>
+  </si>
+  <si>
+    <t>用户信息同步-成功</t>
+  </si>
+  <si>
+    <t>用户信息同步-失败</t>
+  </si>
+  <si>
+    <t>用户权限信息同步-成功</t>
+  </si>
+  <si>
+    <t>用户权限信息同步-失败</t>
+  </si>
+  <si>
+    <t>同步运营中心用户数据</t>
+  </si>
+  <si>
+    <t>/data/service/user/list</t>
+  </si>
+  <si>
+    <t>{
+ "keywords": "小凯",
+ "notInUserIds": [],
+ "pageIndex": 20,
+ "pageSize": 5,
+ "userIds": []
+}</t>
+  </si>
+  <si>
+    <t>租户信息同步</t>
+  </si>
+  <si>
+    <t>/data/tenantSync</t>
+  </si>
+  <si>
+    <t>{
+ "productId": "S0383091"
+}</t>
+  </si>
+  <si>
+    <t>用户信息同步-未订购</t>
+  </si>
+  <si>
+    <t>/data/userSync</t>
+  </si>
+  <si>
+    <t>{
+  "index": 1,
+  "productId": "S6017410",
+  "size": 10,
+  "tenantId": "T584523312"
+}</t>
+  </si>
+  <si>
+    <t>指定租户未订购服务</t>
+  </si>
+  <si>
+    <t>用户信息同步-有订购</t>
+  </si>
+  <si>
+    <t>{
+  "index": 1,
+  "productId": "S9933628",
+  "size": 10,
+  "tenantId": "T584523312"
+}</t>
+  </si>
 </sst>
 </file>
 
@@ -431,8 +523,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -457,22 +549,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -480,8 +556,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -495,9 +572,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -511,47 +596,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -572,15 +619,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -593,6 +634,57 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -615,31 +707,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -651,25 +791,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -681,109 +803,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -794,24 +886,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -830,6 +904,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -841,6 +939,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -862,32 +980,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -899,124 +991,124 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1025,22 +1117,22 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1393,10 +1485,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="9.96428571428571" style="1" customWidth="1"/>
-    <col min="2" max="3" width="9.14285714285714" style="1"/>
-    <col min="4" max="4" width="36.9017857142857" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.14285714285714" style="1"/>
+    <col min="1" max="1" width="9.96428571428571" style="2" customWidth="1"/>
+    <col min="2" max="3" width="9.14285714285714" style="2"/>
+    <col min="4" max="4" width="36.9017857142857" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="9.14285714285714" style="2"/>
   </cols>
   <sheetData>
     <row r="1" ht="18" spans="1:5">
@@ -1467,7 +1559,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="36" spans="1:5">
+    <row r="5" s="2" customFormat="1" ht="36" spans="1:5">
       <c r="A5" s="4" t="s">
         <v>12</v>
       </c>
@@ -1534,7 +1626,7 @@
       <c r="C2" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E2" t="s">
@@ -1551,7 +1643,7 @@
       <c r="C3" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E3" t="s">
@@ -1568,7 +1660,7 @@
       <c r="C4" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E4" s="6" t="s">
@@ -1585,7 +1677,7 @@
       <c r="C5" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E5" t="s">
@@ -1670,7 +1762,7 @@
       <c r="C10" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="2" t="s">
         <v>46</v>
       </c>
       <c r="E10" t="s">
@@ -1687,7 +1779,7 @@
       <c r="C11" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="2" t="s">
         <v>48</v>
       </c>
       <c r="E11" s="6" t="s">
@@ -1704,7 +1796,7 @@
       <c r="C12" t="s">
         <v>51</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="2" t="s">
         <v>52</v>
       </c>
       <c r="E12" t="s">
@@ -1721,7 +1813,7 @@
       <c r="C13" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="2" t="s">
         <v>54</v>
       </c>
       <c r="E13" t="s">
@@ -1739,8 +1831,8 @@
   <sheetPr/>
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="4"/>
@@ -1779,7 +1871,7 @@
       <c r="C2" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>57</v>
       </c>
       <c r="E2" t="s">
@@ -1796,7 +1888,7 @@
       <c r="C3" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>59</v>
       </c>
       <c r="E3" t="s">
@@ -1813,7 +1905,7 @@
       <c r="C4" t="s">
         <v>61</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>57</v>
       </c>
       <c r="E4" t="s">
@@ -1830,7 +1922,7 @@
       <c r="C5" t="s">
         <v>61</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>59</v>
       </c>
       <c r="E5" t="s">
@@ -1898,7 +1990,7 @@
       <c r="C9" t="s">
         <v>75</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="2" t="s">
         <v>76</v>
       </c>
       <c r="E9" s="6" t="s">
@@ -1915,7 +2007,7 @@
       <c r="C10" t="s">
         <v>75</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="2" t="s">
         <v>76</v>
       </c>
       <c r="E10" t="s">
@@ -1932,7 +2024,7 @@
       <c r="C11" t="s">
         <v>79</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="2" t="s">
         <v>80</v>
       </c>
       <c r="E11" t="s">
@@ -1949,7 +2041,7 @@
       <c r="C12" t="s">
         <v>79</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="2" t="s">
         <v>82</v>
       </c>
       <c r="E12" t="s">
@@ -2039,6 +2131,208 @@
       </c>
       <c r="E17" t="s">
         <v>83</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="31.0982142857143" customWidth="1"/>
+    <col min="2" max="2" width="32.875" customWidth="1"/>
+    <col min="3" max="3" width="50.2946428571429" customWidth="1"/>
+    <col min="4" max="4" width="38.9821428571429" customWidth="1"/>
+    <col min="5" max="5" width="23.9553571428571" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" ht="106" spans="1:5">
+      <c r="A2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" ht="106" spans="1:5">
+      <c r="A3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" ht="106" spans="1:5">
+      <c r="A4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" ht="106" spans="1:5">
+      <c r="A5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" ht="106" spans="1:5">
+      <c r="A6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" ht="106" spans="1:5">
+      <c r="A7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" ht="124" spans="1:4">
+      <c r="A8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" ht="53" spans="1:4">
+      <c r="A9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>109</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" ht="106" spans="1:5">
+      <c r="A10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>112</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" ht="106" spans="1:4">
+      <c r="A11" t="s">
+        <v>115</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>112</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/casefile/testdata.xlsx
+++ b/casefile/testdata.xlsx
@@ -2144,7 +2144,7 @@
   <sheetPr/>
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
